--- a/NEW HR/DONE/DIMARANAN, JENELIN.xlsx
+++ b/NEW HR/DONE/DIMARANAN, JENELIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5759DDA0-1298-495A-ABB0-5CFBFD28FACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="74">
   <si>
     <t>PERIOD</t>
   </si>
@@ -254,11 +255,17 @@
   <si>
     <t>12/27,28,29/2022</t>
   </si>
+  <si>
+    <t>LEGISLATIVE STAFF</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -640,15 +647,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -661,11 +659,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1362,7 +1369,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1405,7 +1412,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1469,7 +1476,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1529,7 +1536,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1595,7 +1602,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1658,7 +1665,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1756,7 +1763,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1815,7 +1822,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1880,7 +1887,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1923,7 +1930,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1998,7 +2005,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2184,7 +2191,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2250,7 +2257,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2308,7 +2315,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2374,7 +2381,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2430,7 +2437,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2505,7 +2512,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2548,7 +2555,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2614,7 +2621,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2670,7 +2677,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2768,7 +2775,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2831,7 +2838,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2897,25 +2904,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K141" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K141" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2927,25 +2934,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2957,13 +2964,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2972,14 +2979,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3283,7 +3290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3293,7 +3300,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3301,34 +3308,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K141"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A71" activePane="bottomLeft"/>
-      <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="D84" sqref="D84"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4056" topLeftCell="A76"/>
+      <selection activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3340,36 +3347,38 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51"/>
+      <c r="B3" s="51" t="s">
+        <v>72</v>
+      </c>
       <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58">
+      <c r="F3" s="55">
         <v>42842</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3380,16 +3389,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="56"/>
+      <c r="K4" s="59"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3397,7 +3408,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3410,24 +3421,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3462,7 +3473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3471,7 +3482,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>55.75</v>
+        <v>57</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3481,12 +3492,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>63.75</v>
+        <v>65</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3508,7 +3519,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3532,7 +3543,7 @@
         <v>43126</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3552,7 +3563,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3578,7 +3589,7 @@
         <v>43175</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3598,7 +3609,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3618,7 +3629,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3638,7 +3649,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3658,7 +3669,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3678,7 +3689,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3698,7 +3709,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3718,7 +3729,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3742,7 +3753,7 @@
         <v>43431</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3766,7 +3777,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
         <v>43</v>
       </c>
@@ -3784,7 +3795,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3804,7 +3815,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3826,7 +3837,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3846,7 +3857,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3866,7 +3877,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3886,7 +3897,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3906,7 +3917,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3926,7 +3937,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3946,7 +3957,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3966,7 +3977,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3986,7 +3997,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -4006,7 +4017,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -4032,7 +4043,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>53</v>
@@ -4052,7 +4063,7 @@
         <v>43803</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>53</v>
@@ -4072,7 +4083,7 @@
         <v>43809</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>53</v>
@@ -4092,7 +4103,7 @@
         <v>43797</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="48" t="s">
         <v>44</v>
       </c>
@@ -4110,7 +4121,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43831</v>
       </c>
@@ -4136,7 +4147,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43862</v>
       </c>
@@ -4160,7 +4171,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43891</v>
       </c>
@@ -4180,7 +4191,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>43922</v>
       </c>
@@ -4200,7 +4211,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>43952</v>
       </c>
@@ -4220,7 +4231,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>43983</v>
       </c>
@@ -4240,7 +4251,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44013</v>
       </c>
@@ -4260,7 +4271,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44044</v>
       </c>
@@ -4280,7 +4291,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44075</v>
       </c>
@@ -4304,7 +4315,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>51</v>
@@ -4326,7 +4337,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>53</v>
@@ -4346,7 +4357,7 @@
         <v>44092</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44105</v>
       </c>
@@ -4372,7 +4383,7 @@
         <v>44118</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44136</v>
       </c>
@@ -4392,7 +4403,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44166</v>
       </c>
@@ -4416,7 +4427,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="48" t="s">
         <v>45</v>
       </c>
@@ -4434,7 +4445,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44197</v>
       </c>
@@ -4454,7 +4465,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44228</v>
       </c>
@@ -4474,7 +4485,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44256</v>
       </c>
@@ -4494,7 +4505,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44287</v>
       </c>
@@ -4514,7 +4525,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44317</v>
       </c>
@@ -4534,7 +4545,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44348</v>
       </c>
@@ -4554,7 +4565,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44378</v>
       </c>
@@ -4574,7 +4585,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>44409</v>
       </c>
@@ -4594,7 +4605,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44440</v>
       </c>
@@ -4614,7 +4625,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44470</v>
       </c>
@@ -4634,7 +4645,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44501</v>
       </c>
@@ -4654,7 +4665,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44531</v>
       </c>
@@ -4678,7 +4689,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="48" t="s">
         <v>46</v>
       </c>
@@ -4696,7 +4707,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44562</v>
       </c>
@@ -4716,7 +4727,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44593</v>
       </c>
@@ -4736,7 +4747,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44621</v>
       </c>
@@ -4756,7 +4767,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44652</v>
       </c>
@@ -4776,7 +4787,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44682</v>
       </c>
@@ -4796,7 +4807,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44713</v>
       </c>
@@ -4816,7 +4827,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44743</v>
       </c>
@@ -4836,7 +4847,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>44774</v>
       </c>
@@ -4856,7 +4867,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>44805</v>
       </c>
@@ -4876,7 +4887,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>44835</v>
       </c>
@@ -4896,7 +4907,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>44866</v>
       </c>
@@ -4916,7 +4927,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>44896</v>
       </c>
@@ -4942,7 +4953,7 @@
         <v>44911</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>58</v>
@@ -4964,7 +4975,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>70</v>
@@ -4984,7 +4995,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="48" t="s">
         <v>47</v>
       </c>
@@ -5002,7 +5013,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>44927</v>
       </c>
@@ -5028,7 +5039,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>44958</v>
       </c>
@@ -5048,7 +5059,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>44986</v>
       </c>
@@ -5068,26 +5079,30 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>45017</v>
       </c>
       <c r="B86" s="20"/>
-      <c r="C86" s="13"/>
+      <c r="C86" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D86" s="39"/>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G86" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H86" s="39"/>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="40"/>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="40">
+        <v>45047</v>
+      </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
@@ -5102,7 +5117,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -5118,7 +5133,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -5134,7 +5149,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -5150,7 +5165,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -5166,7 +5181,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -5182,7 +5197,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -5198,7 +5213,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -5214,7 +5229,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5230,7 +5245,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5246,7 +5261,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5262,7 +5277,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5278,7 +5293,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5294,7 +5309,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5310,7 +5325,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5326,7 +5341,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5342,7 +5357,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5358,7 +5373,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5374,7 +5389,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5390,7 +5405,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5406,7 +5421,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5422,7 +5437,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5438,7 +5453,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5454,7 +5469,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5470,7 +5485,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5486,7 +5501,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5502,7 +5517,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5518,7 +5533,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5534,7 +5549,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5550,7 +5565,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5566,7 +5581,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5582,7 +5597,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5598,7 +5613,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5614,7 +5629,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5630,7 +5645,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5646,7 +5661,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5662,7 +5677,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5678,7 +5693,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5694,7 +5709,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5710,7 +5725,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5726,7 +5741,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5742,7 +5757,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5758,7 +5773,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5774,7 +5789,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5790,7 +5805,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5806,7 +5821,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5822,7 +5837,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5838,7 +5853,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5854,7 +5869,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5870,7 +5885,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5886,7 +5901,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5902,7 +5917,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -5918,7 +5933,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -5934,7 +5949,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -5950,7 +5965,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="41"/>
       <c r="B141" s="15"/>
       <c r="C141" s="42"/>
@@ -5968,23 +5983,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6007,34 +6022,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane ySplit="4065" topLeftCell="A10" activePane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <pane ySplit="4068" topLeftCell="A10"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -6047,58 +6062,58 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51" t="str">
-        <f>IF(ISBLANK('2018 LEAVE CREDITS'!B3:C3),"",'2018 LEAVE CREDITS'!B3:C3)</f>
-        <v/>
+      <c r="B3" s="51" t="s">
+        <v>72</v>
       </c>
       <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51"/>
+      <c r="B4" s="51" t="s">
+        <v>48</v>
+      </c>
       <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="str">
-        <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
-        <v/>
-      </c>
-      <c r="G4" s="52"/>
+      <c r="F4" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="56"/>
+      <c r="K4" s="59"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -6106,7 +6121,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -6119,24 +6134,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6171,7 +6186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6180,7 +6195,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>4.7080000000000002</v>
+        <v>3.7080000000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6195,7 +6210,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -6217,7 +6232,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43132</v>
       </c>
@@ -6241,7 +6256,7 @@
         <v>43143</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>51</v>
@@ -6263,7 +6278,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43191</v>
       </c>
@@ -6287,7 +6302,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="48" t="s">
         <v>43</v>
       </c>
@@ -6305,7 +6320,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43466</v>
       </c>
@@ -6329,7 +6344,7 @@
         <v>43468</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>43497</v>
       </c>
@@ -6353,7 +6368,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43525</v>
       </c>
@@ -6377,7 +6392,7 @@
         <v>43532</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="48" t="s">
         <v>47</v>
       </c>
@@ -6392,7 +6407,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>45017</v>
       </c>
@@ -6413,11 +6428,17 @@
         <v>45042</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="20"/>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="40">
+        <v>45065</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C20" s="13"/>
-      <c r="D20" s="39"/>
+      <c r="D20" s="39">
+        <v>1</v>
+      </c>
       <c r="E20" s="9"/>
       <c r="F20" s="20"/>
       <c r="G20" s="13" t="str">
@@ -6427,9 +6448,11 @@
       <c r="H20" s="39"/>
       <c r="I20" s="9"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="20"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K20" s="49">
+        <v>45072</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
       <c r="B21" s="20"/>
       <c r="C21" s="13"/>
@@ -6445,7 +6468,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>
       <c r="B22" s="20"/>
       <c r="C22" s="13"/>
@@ -6461,7 +6484,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20"/>
       <c r="C23" s="13"/>
@@ -6477,7 +6500,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="20"/>
       <c r="C24" s="13"/>
@@ -6493,7 +6516,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="20"/>
       <c r="C25" s="13"/>
@@ -6509,7 +6532,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
@@ -6525,7 +6548,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
@@ -6541,7 +6564,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -6557,7 +6580,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -6573,7 +6596,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -6589,7 +6612,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -6605,7 +6628,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -6621,7 +6644,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -6637,7 +6660,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -6653,7 +6676,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -6669,7 +6692,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -6685,7 +6708,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -6701,7 +6724,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6717,7 +6740,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6733,7 +6756,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6749,7 +6772,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6765,7 +6788,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6781,7 +6804,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6797,7 +6820,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6813,7 +6836,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6829,7 +6852,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6845,7 +6868,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6861,7 +6884,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6877,7 +6900,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6893,7 +6916,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6909,7 +6932,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6925,7 +6948,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6941,7 +6964,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6957,7 +6980,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6973,7 +6996,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6989,7 +7012,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -7005,7 +7028,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -7021,7 +7044,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -7037,7 +7060,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -7053,7 +7076,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -7069,7 +7092,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -7085,7 +7108,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -7101,7 +7124,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -7117,7 +7140,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -7133,7 +7156,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -7149,7 +7172,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -7165,7 +7188,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -7181,7 +7204,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -7197,7 +7220,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -7213,7 +7236,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7229,7 +7252,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7245,7 +7268,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7261,7 +7284,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7277,7 +7300,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7293,7 +7316,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7309,7 +7332,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7325,7 +7348,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7341,7 +7364,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7357,7 +7380,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7373,7 +7396,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7389,7 +7412,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7405,7 +7428,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7421,7 +7444,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7437,7 +7460,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7453,7 +7476,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7469,7 +7492,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7485,7 +7508,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7501,7 +7524,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7517,7 +7540,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7533,7 +7556,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7549,7 +7572,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7565,7 +7588,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7581,7 +7604,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7597,7 +7620,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7613,7 +7636,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7629,7 +7652,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7645,7 +7668,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7661,7 +7684,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7677,7 +7700,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7693,7 +7716,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7709,7 +7732,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7725,7 +7748,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7741,7 +7764,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7757,7 +7780,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7773,7 +7796,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7789,7 +7812,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7805,7 +7828,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7821,7 +7844,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7837,7 +7860,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7853,7 +7876,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7869,7 +7892,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7885,7 +7908,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7901,7 +7924,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -7917,7 +7940,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -7933,7 +7956,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -7949,7 +7972,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -7965,7 +7988,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -7981,7 +8004,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -7997,7 +8020,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -8013,7 +8036,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -8029,7 +8052,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -8045,7 +8068,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -8061,7 +8084,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -8077,7 +8100,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -8093,7 +8116,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -8109,7 +8132,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -8125,7 +8148,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -8141,7 +8164,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -8157,7 +8180,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -8173,7 +8196,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="41"/>
       <c r="B130" s="15"/>
       <c r="C130" s="42"/>
@@ -8204,10 +8227,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8230,7 +8253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -8238,21 +8261,21 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -8265,7 +8288,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8294,7 +8317,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>5.7080000000000002</v>
       </c>
@@ -8318,17 +8341,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8349,7 +8372,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8376,7 +8399,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8402,7 +8425,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8428,7 +8451,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8454,7 +8477,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8480,7 +8503,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8506,7 +8529,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8532,7 +8555,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8558,7 +8581,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8578,7 +8601,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8598,7 +8621,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8618,7 +8641,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8639,7 +8662,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8660,7 +8683,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8681,7 +8704,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8702,7 +8725,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8723,7 +8746,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8744,7 +8767,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8765,7 +8788,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8786,7 +8809,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8807,7 +8830,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8828,7 +8851,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8849,7 +8872,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8870,7 +8893,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8891,7 +8914,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8912,7 +8935,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8933,7 +8956,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8954,7 +8977,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8975,7 +8998,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8996,7 +9019,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -9017,7 +9040,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9038,7 +9061,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9047,7 +9070,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9056,7 +9079,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9065,7 +9088,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9074,7 +9097,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9083,7 +9106,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9092,7 +9115,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9101,7 +9124,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9110,7 +9133,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9119,7 +9142,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9128,7 +9151,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9137,7 +9160,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9146,7 +9169,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9155,7 +9178,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9164,7 +9187,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9173,7 +9196,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9182,7 +9205,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9191,7 +9214,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9200,7 +9223,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9209,7 +9232,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9218,7 +9241,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9227,7 +9250,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9236,7 +9259,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9245,7 +9268,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9254,7 +9277,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9263,7 +9286,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9272,7 +9295,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9281,7 +9304,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9290,7 +9313,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9299,7 +9322,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/DONE/DIMARANAN, JENELIN.xlsx
+++ b/NEW HR/DONE/DIMARANAN, JENELIN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5759DDA0-1298-495A-ABB0-5CFBFD28FACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F26C67-B0B3-4D40-A0AA-327ECDA77EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="74">
   <si>
     <t>PERIOD</t>
   </si>
@@ -647,6 +647,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -659,20 +668,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2887,7 +2887,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3314,10 +3314,10 @@
   </sheetPr>
   <dimension ref="A2:K141"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4056" topLeftCell="A76"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <pane ySplit="3108" topLeftCell="A81" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="A88" sqref="A88"/>
+      <selection pane="bottomLeft" activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3347,14 +3347,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -3367,16 +3367,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="58">
         <v>42842</v>
       </c>
-      <c r="G3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -3389,16 +3389,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="59"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3424,18 +3424,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3482,7 +3482,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>57</v>
+        <v>59.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3492,7 +3492,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>65</v>
+        <v>67.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5015,7 +5015,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B83" s="20" t="s">
         <v>67</v>
@@ -5041,7 +5041,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
-        <v>44958</v>
+        <v>44985</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13">
@@ -5061,7 +5061,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
-        <v>44986</v>
+        <v>45016</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13">
@@ -5081,7 +5081,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13">
@@ -5101,16 +5101,18 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
-        <v>45047</v>
+        <v>45077</v>
       </c>
       <c r="B87" s="20"/>
-      <c r="C87" s="13"/>
+      <c r="C87" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D87" s="39"/>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
@@ -5118,15 +5120,19 @@
       <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="40"/>
+      <c r="A88" s="40">
+        <v>45107</v>
+      </c>
       <c r="B88" s="20"/>
-      <c r="C88" s="13"/>
+      <c r="C88" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D88" s="39"/>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G88" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H88" s="39"/>
       <c r="I88" s="9"/>
@@ -5134,7 +5140,9 @@
       <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="40"/>
+      <c r="A89" s="40">
+        <v>45138</v>
+      </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
@@ -5150,7 +5158,9 @@
       <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="40"/>
+      <c r="A90" s="40">
+        <v>45169</v>
+      </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
@@ -5983,17 +5993,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -6029,9 +6039,9 @@
   <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane ySplit="4068" topLeftCell="A10"/>
+      <pane ySplit="4068" topLeftCell="A16" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6062,14 +6072,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -6082,14 +6092,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="56"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -6102,16 +6112,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="59"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -6137,18 +6147,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -6195,7 +6205,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>3.7080000000000002</v>
+        <v>2.7080000000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6453,10 +6463,16 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="40"/>
-      <c r="B21" s="20"/>
+      <c r="A21" s="40">
+        <v>45106</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C21" s="13"/>
-      <c r="D21" s="39"/>
+      <c r="D21" s="39">
+        <v>1</v>
+      </c>
       <c r="E21" s="9"/>
       <c r="F21" s="20"/>
       <c r="G21" s="13" t="str">
@@ -6466,7 +6482,9 @@
       <c r="H21" s="39"/>
       <c r="I21" s="9"/>
       <c r="J21" s="11"/>
-      <c r="K21" s="20"/>
+      <c r="K21" s="49">
+        <v>45117</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>

--- a/NEW HR/DONE/DIMARANAN, JENELIN.xlsx
+++ b/NEW HR/DONE/DIMARANAN, JENELIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F26C67-B0B3-4D40-A0AA-327ECDA77EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="75">
   <si>
     <t>PERIOD</t>
   </si>
@@ -261,11 +260,14 @@
   <si>
     <t>SP</t>
   </si>
+  <si>
+    <t>9/5-8/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1369,7 +1371,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1412,7 +1414,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1476,7 +1478,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1536,7 +1538,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1602,7 +1604,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1665,7 +1667,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1763,7 +1765,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1822,7 +1824,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1887,7 +1889,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1930,7 +1932,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2005,7 +2007,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2191,7 +2193,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2257,7 +2259,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2315,7 +2317,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2381,7 +2383,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2437,7 +2439,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2512,7 +2514,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2555,7 +2557,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2621,7 +2623,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2677,7 +2679,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2775,7 +2777,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2838,7 +2840,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2887,7 +2889,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2904,25 +2906,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K141" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K141" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2934,25 +2936,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2964,13 +2966,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2979,14 +2981,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3290,7 +3292,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3300,7 +3302,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3308,34 +3310,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K141"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <pane ySplit="3108" topLeftCell="A81" activePane="bottomLeft"/>
+    <sheetView zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <pane ySplit="3105" topLeftCell="A81" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="D91" sqref="D91"/>
+      <selection pane="bottomLeft" activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3356,7 +3358,7 @@
       <c r="J2" s="56"/>
       <c r="K2" s="57"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3378,7 +3380,7 @@
       <c r="J3" s="59"/>
       <c r="K3" s="60"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3400,7 +3402,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3408,7 +3410,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3421,7 +3423,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="54" t="s">
@@ -3438,7 +3440,7 @@
       <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3473,7 +3475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3482,7 +3484,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>59.5</v>
+        <v>58</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3492,12 +3494,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>67.5</v>
+        <v>70</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3519,7 +3521,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3543,7 +3545,7 @@
         <v>43126</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3563,7 +3565,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3589,7 +3591,7 @@
         <v>43175</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3609,7 +3611,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3629,7 +3631,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3649,7 +3651,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3669,7 +3671,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3689,7 +3691,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3709,7 +3711,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3729,7 +3731,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3753,7 +3755,7 @@
         <v>43431</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3777,7 +3779,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>43</v>
       </c>
@@ -3795,7 +3797,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3815,7 +3817,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3837,7 +3839,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3857,7 +3859,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3877,7 +3879,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3897,7 +3899,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3917,7 +3919,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3937,7 +3939,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3957,7 +3959,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3977,7 +3979,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3997,7 +3999,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -4017,7 +4019,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -4043,7 +4045,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>53</v>
@@ -4063,7 +4065,7 @@
         <v>43803</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>53</v>
@@ -4083,7 +4085,7 @@
         <v>43809</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>53</v>
@@ -4103,7 +4105,7 @@
         <v>43797</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="48" t="s">
         <v>44</v>
       </c>
@@ -4121,7 +4123,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43831</v>
       </c>
@@ -4147,7 +4149,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43862</v>
       </c>
@@ -4171,7 +4173,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43891</v>
       </c>
@@ -4191,7 +4193,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43922</v>
       </c>
@@ -4211,7 +4213,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>43952</v>
       </c>
@@ -4231,7 +4233,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>43983</v>
       </c>
@@ -4251,7 +4253,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44013</v>
       </c>
@@ -4271,7 +4273,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44044</v>
       </c>
@@ -4291,7 +4293,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44075</v>
       </c>
@@ -4315,7 +4317,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>51</v>
@@ -4337,7 +4339,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>53</v>
@@ -4357,7 +4359,7 @@
         <v>44092</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44105</v>
       </c>
@@ -4383,7 +4385,7 @@
         <v>44118</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44136</v>
       </c>
@@ -4403,7 +4405,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44166</v>
       </c>
@@ -4427,7 +4429,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="48" t="s">
         <v>45</v>
       </c>
@@ -4445,7 +4447,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44197</v>
       </c>
@@ -4465,7 +4467,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44228</v>
       </c>
@@ -4485,7 +4487,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44256</v>
       </c>
@@ -4505,7 +4507,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44287</v>
       </c>
@@ -4525,7 +4527,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44317</v>
       </c>
@@ -4545,7 +4547,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44348</v>
       </c>
@@ -4565,7 +4567,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44378</v>
       </c>
@@ -4585,7 +4587,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44409</v>
       </c>
@@ -4605,7 +4607,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44440</v>
       </c>
@@ -4625,7 +4627,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44470</v>
       </c>
@@ -4645,7 +4647,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44501</v>
       </c>
@@ -4665,7 +4667,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44531</v>
       </c>
@@ -4689,7 +4691,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="48" t="s">
         <v>46</v>
       </c>
@@ -4707,7 +4709,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44562</v>
       </c>
@@ -4727,7 +4729,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44593</v>
       </c>
@@ -4747,7 +4749,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44621</v>
       </c>
@@ -4767,7 +4769,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44652</v>
       </c>
@@ -4787,7 +4789,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44682</v>
       </c>
@@ -4807,7 +4809,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44713</v>
       </c>
@@ -4827,7 +4829,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44743</v>
       </c>
@@ -4847,7 +4849,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44774</v>
       </c>
@@ -4867,7 +4869,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44805</v>
       </c>
@@ -4887,7 +4889,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44835</v>
       </c>
@@ -4907,7 +4909,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>44866</v>
       </c>
@@ -4927,7 +4929,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>44896</v>
       </c>
@@ -4953,7 +4955,7 @@
         <v>44911</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>58</v>
@@ -4975,7 +4977,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>70</v>
@@ -4995,7 +4997,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="48" t="s">
         <v>47</v>
       </c>
@@ -5013,7 +5015,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>44957</v>
       </c>
@@ -5039,7 +5041,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>44985</v>
       </c>
@@ -5059,7 +5061,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>45016</v>
       </c>
@@ -5079,7 +5081,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>45046</v>
       </c>
@@ -5099,7 +5101,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>45077</v>
       </c>
@@ -5119,7 +5121,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>45107</v>
       </c>
@@ -5139,43 +5141,53 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>45138</v>
       </c>
       <c r="B89" s="20"/>
-      <c r="C89" s="13"/>
+      <c r="C89" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D89" s="39"/>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G89" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H89" s="39"/>
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>45169</v>
       </c>
-      <c r="B90" s="20"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="39"/>
+      <c r="B90" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C90" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D90" s="39">
+        <v>4</v>
+      </c>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
-      <c r="G90" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G90" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H90" s="39"/>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="20"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K90" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -5191,7 +5203,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -5207,7 +5219,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -5223,7 +5235,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -5239,7 +5251,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5255,7 +5267,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5271,7 +5283,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5287,7 +5299,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5303,7 +5315,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5319,7 +5331,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5335,7 +5347,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5351,7 +5363,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5367,7 +5379,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5383,7 +5395,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5399,7 +5411,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5415,7 +5427,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5431,7 +5443,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5447,7 +5459,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5463,7 +5475,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5479,7 +5491,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5495,7 +5507,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5511,7 +5523,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5527,7 +5539,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5543,7 +5555,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5559,7 +5571,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5575,7 +5587,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5591,7 +5603,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5607,7 +5619,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5623,7 +5635,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5639,7 +5651,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5655,7 +5667,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5671,7 +5683,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5687,7 +5699,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5703,7 +5715,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5719,7 +5731,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5735,7 +5747,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5751,7 +5763,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5767,7 +5779,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5783,7 +5795,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5799,7 +5811,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5815,7 +5827,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5831,7 +5843,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5847,7 +5859,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5863,7 +5875,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5879,7 +5891,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5895,7 +5907,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5911,7 +5923,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5927,7 +5939,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -5943,7 +5955,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -5959,7 +5971,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -5975,7 +5987,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="41"/>
       <c r="B141" s="15"/>
       <c r="C141" s="42"/>
@@ -6006,10 +6018,10 @@
     <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6032,34 +6044,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
-    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane ySplit="4068" topLeftCell="A16" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <pane ySplit="4065" topLeftCell="A16" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
+      <selection pane="bottomLeft" activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -6081,7 +6093,7 @@
       <c r="J2" s="56"/>
       <c r="K2" s="57"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -6101,7 +6113,7 @@
       <c r="J3" s="59"/>
       <c r="K3" s="60"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -6123,7 +6135,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -6131,7 +6143,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -6144,7 +6156,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="54" t="s">
@@ -6161,7 +6173,7 @@
       <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6196,7 +6208,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6205,7 +6217,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>2.7080000000000002</v>
+        <v>1.7080000000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6220,7 +6232,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -6242,7 +6254,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43132</v>
       </c>
@@ -6266,7 +6278,7 @@
         <v>43143</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>51</v>
@@ -6288,7 +6300,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43191</v>
       </c>
@@ -6312,7 +6324,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="48" t="s">
         <v>43</v>
       </c>
@@ -6330,7 +6342,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43466</v>
       </c>
@@ -6354,7 +6366,7 @@
         <v>43468</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>43497</v>
       </c>
@@ -6378,7 +6390,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43525</v>
       </c>
@@ -6402,7 +6414,7 @@
         <v>43532</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
         <v>47</v>
       </c>
@@ -6417,7 +6429,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>45017</v>
       </c>
@@ -6438,7 +6450,7 @@
         <v>45042</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>45065</v>
       </c>
@@ -6462,7 +6474,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>45106</v>
       </c>
@@ -6486,11 +6498,17 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="40"/>
-      <c r="B22" s="20"/>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="40">
+        <v>45160</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C22" s="13"/>
-      <c r="D22" s="39"/>
+      <c r="D22" s="39">
+        <v>1</v>
+      </c>
       <c r="E22" s="9"/>
       <c r="F22" s="20"/>
       <c r="G22" s="13" t="str">
@@ -6500,9 +6518,11 @@
       <c r="H22" s="39"/>
       <c r="I22" s="9"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="20"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K22" s="49">
+        <v>45168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20"/>
       <c r="C23" s="13"/>
@@ -6518,7 +6538,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20"/>
       <c r="C24" s="13"/>
@@ -6534,7 +6554,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20"/>
       <c r="C25" s="13"/>
@@ -6550,7 +6570,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
@@ -6566,7 +6586,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
@@ -6582,7 +6602,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -6598,7 +6618,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -6614,7 +6634,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -6630,7 +6650,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -6646,7 +6666,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -6662,7 +6682,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -6678,7 +6698,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -6694,7 +6714,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -6710,7 +6730,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -6726,7 +6746,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -6742,7 +6762,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6758,7 +6778,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6774,7 +6794,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6790,7 +6810,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6806,7 +6826,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6822,7 +6842,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6838,7 +6858,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6854,7 +6874,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6870,7 +6890,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6886,7 +6906,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6902,7 +6922,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6918,7 +6938,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6934,7 +6954,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6950,7 +6970,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6966,7 +6986,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6982,7 +7002,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6998,7 +7018,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -7014,7 +7034,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -7030,7 +7050,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -7046,7 +7066,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -7062,7 +7082,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -7078,7 +7098,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -7094,7 +7114,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -7110,7 +7130,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -7126,7 +7146,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -7142,7 +7162,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -7158,7 +7178,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -7174,7 +7194,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -7190,7 +7210,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -7206,7 +7226,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -7222,7 +7242,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -7238,7 +7258,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -7254,7 +7274,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7270,7 +7290,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7286,7 +7306,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7302,7 +7322,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7318,7 +7338,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7334,7 +7354,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7350,7 +7370,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7366,7 +7386,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7382,7 +7402,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7398,7 +7418,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7414,7 +7434,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7430,7 +7450,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7446,7 +7466,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7462,7 +7482,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7478,7 +7498,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7494,7 +7514,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7510,7 +7530,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7526,7 +7546,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7542,7 +7562,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7558,7 +7578,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7574,7 +7594,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7590,7 +7610,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7606,7 +7626,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7622,7 +7642,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7638,7 +7658,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7654,7 +7674,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7670,7 +7690,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7686,7 +7706,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7702,7 +7722,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7718,7 +7738,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7734,7 +7754,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7750,7 +7770,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7766,7 +7786,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7782,7 +7802,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7798,7 +7818,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7814,7 +7834,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7830,7 +7850,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7846,7 +7866,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7862,7 +7882,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7878,7 +7898,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7894,7 +7914,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7910,7 +7930,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7926,7 +7946,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7942,7 +7962,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -7958,7 +7978,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -7974,7 +7994,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -7990,7 +8010,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -8006,7 +8026,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -8022,7 +8042,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -8038,7 +8058,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -8054,7 +8074,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -8070,7 +8090,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -8086,7 +8106,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -8102,7 +8122,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -8118,7 +8138,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -8134,7 +8154,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -8150,7 +8170,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -8166,7 +8186,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -8182,7 +8202,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -8198,7 +8218,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -8214,7 +8234,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="41"/>
       <c r="B130" s="15"/>
       <c r="C130" s="42"/>
@@ -8245,10 +8265,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8271,7 +8291,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -8279,21 +8299,21 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -8306,7 +8326,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8335,7 +8355,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>5.7080000000000002</v>
       </c>
@@ -8359,17 +8379,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8390,7 +8410,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8417,7 +8437,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8443,7 +8463,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8469,7 +8489,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8495,7 +8515,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8521,7 +8541,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8547,7 +8567,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8573,7 +8593,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8599,7 +8619,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8619,7 +8639,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8639,7 +8659,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8659,7 +8679,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8680,7 +8700,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8701,7 +8721,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8722,7 +8742,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8743,7 +8763,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8764,7 +8784,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8785,7 +8805,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8806,7 +8826,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8827,7 +8847,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8848,7 +8868,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8869,7 +8889,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8890,7 +8910,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8911,7 +8931,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8932,7 +8952,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8953,7 +8973,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8974,7 +8994,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8995,7 +9015,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -9016,7 +9036,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -9037,7 +9057,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -9058,7 +9078,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9079,7 +9099,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9088,7 +9108,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9097,7 +9117,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9106,7 +9126,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9115,7 +9135,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9124,7 +9144,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9133,7 +9153,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9142,7 +9162,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9151,7 +9171,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9160,7 +9180,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9169,7 +9189,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9178,7 +9198,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9187,7 +9207,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9196,7 +9216,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9205,7 +9225,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9214,7 +9234,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9223,7 +9243,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9232,7 +9252,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9241,7 +9261,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9250,7 +9270,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9259,7 +9279,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9268,7 +9288,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9277,7 +9297,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9286,7 +9306,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9295,7 +9315,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9304,7 +9324,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9313,7 +9333,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9322,7 +9342,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9331,7 +9351,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9340,7 +9360,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
